--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,19 +43,22 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>disappointment</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>however</t>
+    <t>poor</t>
   </si>
   <si>
     <t>disappointed</t>
@@ -64,237 +67,222 @@
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>might</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>un</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>look</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -304,9 +292,6 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -316,9 +301,6 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -349,19 +331,13 @@
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>enjoy</t>
   </si>
   <si>
     <t>family</t>
@@ -728,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -818,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -839,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -847,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -865,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -889,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -897,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -915,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K5">
-        <v>0.7846153846153846</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -939,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -947,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -965,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>0.7777777777777778</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -989,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -997,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7407407407407407</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1015,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K7">
-        <v>0.6774193548387096</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1039,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1047,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.734375</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1065,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.484375</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1089,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1097,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7311827956989247</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C9">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1115,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K9">
-        <v>0.5849056603773585</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1139,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1147,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7281553398058253</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1165,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K10">
-        <v>0.46875</v>
+        <v>0.3467213114754099</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1189,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1197,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6619718309859155</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1215,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>0.4057971014492754</v>
+        <v>0.3055954088952654</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1239,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1247,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6551724137931034</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1265,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.3245901639344262</v>
+        <v>0.2427385892116183</v>
       </c>
       <c r="L12">
-        <v>396</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>396</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1289,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>824</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1297,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1315,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K13">
-        <v>0.2955523672883787</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L13">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1339,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>491</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1347,13 +1323,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6216216216216216</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1365,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K14">
-        <v>0.2800829875518672</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L14">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1389,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>347</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1397,7 +1373,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1415,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K15">
-        <v>0.2083333333333333</v>
+        <v>0.1681957186544343</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1439,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>95</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1447,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5952380952380952</v>
+        <v>0.68</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1465,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>0.1867469879518072</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1489,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1497,13 +1473,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5798319327731093</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1515,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K17">
-        <v>0.1865443425076453</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1539,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>266</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1547,13 +1523,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5789473684210527</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1565,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K18">
-        <v>0.1322751322751323</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1589,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1597,13 +1573,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1615,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19">
-        <v>0.125</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1639,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>112</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1647,13 +1623,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5555555555555556</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1665,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>0.1118881118881119</v>
+        <v>0.04456824512534819</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -1689,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>127</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1697,13 +1673,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5526315789473685</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1718,16 +1694,16 @@
         <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K21">
-        <v>0.1004016064257028</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1739,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>224</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1747,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5416666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1765,31 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22">
-        <v>0.08150744960560911</v>
-      </c>
-      <c r="L22">
-        <v>93</v>
-      </c>
-      <c r="M22">
-        <v>93</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1048</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1797,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5142857142857142</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1815,31 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="L23">
-        <v>15</v>
-      </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1847,13 +1775,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4888888888888889</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1865,31 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24">
-        <v>0.04178272980501393</v>
-      </c>
-      <c r="L24">
         <v>15</v>
-      </c>
-      <c r="M24">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1897,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4838709677419355</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1915,31 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25">
-        <v>0.03828682673588579</v>
-      </c>
-      <c r="L25">
-        <v>59</v>
-      </c>
-      <c r="M25">
-        <v>59</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1482</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1947,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4698795180722892</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1965,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +1853,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4608695652173913</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C27">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1999,13 +1879,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2017,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2025,13 +1905,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4285714285714285</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2043,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +1931,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4285714285714285</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2077,13 +1957,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4251968503937008</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2095,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2103,13 +1983,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4074074074074074</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2121,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2129,13 +2009,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2147,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2155,13 +2035,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.390625</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2173,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2181,13 +2061,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3846153846153846</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2199,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2207,13 +2087,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3833333333333334</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2225,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2233,13 +2113,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3770491803278688</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2251,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2259,13 +2139,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.375</v>
+        <v>0.359375</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2277,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2285,13 +2165,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3720930232558139</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2303,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2311,13 +2191,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3620689655172414</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2329,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2337,13 +2217,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3518518518518519</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2355,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2363,13 +2243,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3483146067415731</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2381,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2389,13 +2269,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3469387755102041</v>
+        <v>0.3125</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2407,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2415,13 +2295,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3125</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2433,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2441,13 +2321,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2920792079207921</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2459,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2467,13 +2347,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.28125</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C46">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2485,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2493,13 +2373,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2727272727272727</v>
+        <v>0.28125</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2511,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2519,13 +2399,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2698412698412698</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2537,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2545,13 +2425,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2511848341232227</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2563,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>158</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2571,13 +2451,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2388059701492537</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2589,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>51</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2597,13 +2477,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2319587628865979</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2615,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2623,13 +2503,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2318840579710145</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2641,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2649,13 +2529,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2297297297297297</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2667,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2675,13 +2555,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2214285714285714</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2693,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2701,13 +2581,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2136752136752137</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2719,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2727,13 +2607,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2745,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>60</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2753,13 +2633,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1949152542372881</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2771,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>95</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2779,13 +2659,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1938775510204082</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2797,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2805,13 +2685,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1868131868131868</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2823,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2831,25 +2711,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1847133757961783</v>
+        <v>0.1679049034175334</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>128</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2857,13 +2737,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.18</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C61">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2875,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2883,13 +2763,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1780415430267062</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C62">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2901,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>554</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2909,13 +2789,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1752577319587629</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2927,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>80</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2935,13 +2815,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1708860759493671</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C64">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2953,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>262</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2961,13 +2841,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1630434782608696</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C65">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2979,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>231</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2987,25 +2867,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1587301587301587</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E66">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>265</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3013,13 +2893,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.154639175257732</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3031,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>82</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3039,13 +2919,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1481481481481481</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3057,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>92</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3065,13 +2945,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1461538461538462</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3083,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3091,13 +2971,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.145374449339207</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C70">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D70">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3109,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>388</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3117,25 +2997,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1354466858789625</v>
+        <v>0.1171875</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>300</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3143,13 +3023,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1308411214953271</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3161,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3169,25 +3049,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.125</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>112</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3195,25 +3075,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.12</v>
+        <v>0.09716599190283401</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>154</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3221,13 +3101,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09740259740259741</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3239,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3247,13 +3127,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09677419354838709</v>
+        <v>0.08767123287671233</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3265,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>224</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3273,25 +3153,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09574468085106383</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>170</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3299,13 +3179,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09424083769633508</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3317,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3325,13 +3205,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09375</v>
+        <v>0.075</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D79">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3343,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>174</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3351,7 +3231,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.09363295880149813</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C80">
         <v>25</v>
@@ -3369,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>242</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3377,25 +3257,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09315068493150686</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="C81">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>331</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3403,25 +3283,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.08196721311475409</v>
+        <v>0.05379746835443038</v>
       </c>
       <c r="C82">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>168</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3429,13 +3309,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06578947368421052</v>
+        <v>0.0534521158129176</v>
       </c>
       <c r="C83">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3447,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>568</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3455,129 +3335,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.06264501160092807</v>
+        <v>0.03156565656565657</v>
       </c>
       <c r="C84">
+        <v>25</v>
+      </c>
+      <c r="D84">
         <v>27</v>
       </c>
-      <c r="D84">
-        <v>30</v>
-      </c>
       <c r="E84">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F84">
-        <v>0.9</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.058165548098434</v>
-      </c>
-      <c r="C85">
-        <v>26</v>
-      </c>
-      <c r="D85">
-        <v>28</v>
-      </c>
-      <c r="E85">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F85">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.05633802816901409</v>
-      </c>
-      <c r="C86">
-        <v>20</v>
-      </c>
-      <c r="D86">
-        <v>20</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.03516819571865443</v>
-      </c>
-      <c r="C87">
-        <v>23</v>
-      </c>
-      <c r="D87">
-        <v>24</v>
-      </c>
-      <c r="E87">
-        <v>0.04</v>
-      </c>
-      <c r="F87">
-        <v>0.96</v>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.03164556962025317</v>
-      </c>
-      <c r="C88">
-        <v>25</v>
-      </c>
-      <c r="D88">
-        <v>29</v>
-      </c>
-      <c r="E88">
-        <v>0.14</v>
-      </c>
-      <c r="F88">
-        <v>0.86</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
